--- a/config/config_ml_models_development/MasterTable_process_a.xlsx
+++ b/config/config_ml_models_development/MasterTable_process_a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="11505" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>TAG</t>
   </si>
@@ -25,9 +25,6 @@
     <t>CLASIFICACION</t>
   </si>
   <si>
-    <t>TAG_DESCRIPTION</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -77,6 +74,18 @@
   </si>
   <si>
     <t>MLA</t>
+  </si>
+  <si>
+    <t>FEATURES_NAMES</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,119 +446,159 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_ml_models_development/MasterTable_process_a.xlsx
+++ b/config/config_ml_models_development/MasterTable_process_a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="11505" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="12105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>USE_ACTUAL_MODEL</t>
   </si>
   <si>
-    <t>MLA</t>
-  </si>
-  <si>
     <t>FEATURES_NAMES</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>PR_A_Y1</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -558,18 +558,18 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -578,18 +578,18 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -598,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_ml_models_development/MasterTable_process_a.xlsx
+++ b/config/config_ml_models_development/MasterTable_process_a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="12705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
